--- a/RetroMeter BOM.xlsx
+++ b/RetroMeter BOM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Desktop\2018-08-18 retro meter v02\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cross\Documents\GitHub\RetroMeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D00AC9A-6B15-4234-9A28-516806FCD617}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E9518A-38B4-4985-AF54-C9943DE63142}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21585" windowHeight="11520" xr2:uid="{5DEB0F33-E1B3-4ACB-BC67-13A94803B65A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
   <si>
     <t>Retro CV Meter</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>Analog Sub-Module</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>JST PH</t>
+  </si>
+  <si>
+    <t>SMT JST PH 2-pin connector</t>
+  </si>
+  <si>
+    <t>PID #1769</t>
   </si>
 </sst>
 </file>
@@ -270,8 +282,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9205C274-5A9F-4134-9B2B-4317FB90AEB6}" name="Table1" displayName="Table1" ref="C3:H13" totalsRowShown="0">
-  <autoFilter ref="C3:H13" xr:uid="{0B4D5F6C-69DD-4167-9452-E9ACA575EB12}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9205C274-5A9F-4134-9B2B-4317FB90AEB6}" name="Table1" displayName="Table1" ref="C3:H14" totalsRowShown="0">
+  <autoFilter ref="C3:H14" xr:uid="{0B4D5F6C-69DD-4167-9452-E9ACA575EB12}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{C872B602-0692-44C7-8E4E-769DA8F7B7B4}" name="Designation"/>
     <tableColumn id="2" xr3:uid="{93AD1393-4364-4D3B-B80D-7A1F9315BC6B}" name="Qty"/>
@@ -285,8 +297,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA4B292E-4DF9-4209-9F70-4E3E0CB9F598}" name="Table2" displayName="Table2" ref="C16:H21" totalsRowShown="0">
-  <autoFilter ref="C16:H21" xr:uid="{F539F113-D444-4541-8C8F-8C189CDE3708}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BA4B292E-4DF9-4209-9F70-4E3E0CB9F598}" name="Table2" displayName="Table2" ref="C17:H22" totalsRowShown="0">
+  <autoFilter ref="C17:H22" xr:uid="{F539F113-D444-4541-8C8F-8C189CDE3708}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{8390FF71-B983-49D7-8980-13E3010EE06E}" name="Designation"/>
     <tableColumn id="2" xr3:uid="{4B5266F1-88FD-4C34-8761-46EB98D61656}" name="Qty"/>
@@ -596,30 +608,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40B49F7-E380-4870-AD3D-BD3DDE58BD67}">
-  <dimension ref="B2:H23"/>
+  <dimension ref="B2:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.3984375" customWidth="1"/>
+    <col min="2" max="2" width="2.73046875" customWidth="1"/>
+    <col min="3" max="3" width="18.3984375" customWidth="1"/>
+    <col min="4" max="4" width="6.265625" customWidth="1"/>
+    <col min="5" max="5" width="26.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="43.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C3" t="s">
         <v>1</v>
       </c>
@@ -639,7 +651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>52</v>
       </c>
@@ -656,7 +668,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C5" t="s">
         <v>53</v>
       </c>
@@ -673,7 +685,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C6" t="s">
         <v>54</v>
       </c>
@@ -690,7 +702,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C7" t="s">
         <v>9</v>
       </c>
@@ -707,7 +719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C8" t="s">
         <v>29</v>
       </c>
@@ -724,7 +736,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -741,7 +753,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C10" t="s">
         <v>30</v>
       </c>
@@ -758,7 +770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C11" t="s">
         <v>10</v>
       </c>
@@ -775,7 +787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C12" t="s">
         <v>11</v>
       </c>
@@ -795,103 +807,121 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C14" t="s">
         <v>12</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+    <row r="16" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" t="s">
+    <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>3</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>4</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>5</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C18" t="s">
         <v>6</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>42</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C21" t="s">
         <v>10</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>1</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>51</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>50</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G21" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="C22" t="s">
         <v>43</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F22" t="s">
         <v>48</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
         <v>56</v>
       </c>
     </row>
@@ -906,7 +936,7 @@
     <hyperlink ref="G8" r:id="rId7" display="https://www.digikey.com/product-detail/en/C0805C104J4RACTU/399-11163-1-ND/4357875/?itemSeq=269577860" xr:uid="{22E2BB71-2E41-4000-B2AC-E41FE415A93B}"/>
     <hyperlink ref="G6" r:id="rId8" display="https://www.digikey.com/product-detail/en/ERJ-6ENF1002V/P10.0KCCT-ND/119248/?itemSeq=269577945" xr:uid="{CBE652C1-F7C0-4F9C-B186-98AE5C70D863}"/>
     <hyperlink ref="G12" r:id="rId9" display="https://www.digikey.com/product-detail/en/3500/1528-2361-ND/7623049/?itemSeq=269577995" xr:uid="{032E7AE6-6357-4D9A-A626-C597B978D70E}"/>
-    <hyperlink ref="G20" r:id="rId10" display="https://www.digikey.com/product-detail/en/74HCT1G125GV%2c125/1727-6054-1-ND/2753890/?itemSeq=269597075" xr:uid="{DA805C92-28AD-44F5-9445-DB495B5175BD}"/>
+    <hyperlink ref="G21" r:id="rId10" display="https://www.digikey.com/product-detail/en/74HCT1G125GV%2c125/1727-6054-1-ND/2753890/?itemSeq=269597075" xr:uid="{DA805C92-28AD-44F5-9445-DB495B5175BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId11"/>
